--- a/MCEval_Files/metrics_1.xlsx
+++ b/MCEval_Files/metrics_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowHeight="18160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Compare with CanonicalCode</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Code by GPT-4-turbo</t>
+  </si>
+  <si>
+    <t>Code by GPT-3.5-turbo</t>
   </si>
   <si>
     <t>Code by GPT-4o</t>
@@ -1213,13 +1216,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:H8"/>
+  <dimension ref="C5:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K5" sqref="K5:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="30.2053571428571" style="1" customWidth="1"/>
@@ -1227,10 +1230,14 @@
     <col min="5" max="5" width="12.4821428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.3303571428571" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+    <col min="8" max="10" width="9.14285714285714" style="1"/>
+    <col min="11" max="11" width="31.6428571428571" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.14285714285714" style="1"/>
+    <col min="14" max="14" width="11.5" style="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:15">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1256,23 @@
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:15">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1266,8 +1288,26 @@
       <c r="G6" s="1">
         <v>0.997422</v>
       </c>
+      <c r="H6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.606</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:15">
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1283,10 +1323,28 @@
       <c r="G7" s="1">
         <v>0.606185</v>
       </c>
+      <c r="H7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:15">
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1299,11 +1357,30 @@
       </c>
       <c r="G8" s="1">
         <v>0.911424</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.911</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" display="Pass@1" tooltip="mailto:Pass@1"/>
+    <hyperlink ref="O5" r:id="rId1" display="Pass@1" tooltip="mailto:Pass@1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
